--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PAR_energy_consumption_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/4_PAR_energy_consumption_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/PhD/Models/ME optimisation model/Case study/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\OneDrive - Newcastle University\Python\Projects\Bat_Sust_Model\example notebooks\Example publication - integrated modelling\data\ODYM_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="13_ncr:1_{037EA8CB-7E55-4ED5-AD58-E4D710C84418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C30B41DE-8116-4113-AD76-05AEE1225427}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B3F8C0-3073-4E84-AF32-2CDDBAE167D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81E45B87-9737-402B-8413-F67EDDCCF4B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81E45B87-9737-402B-8413-F67EDDCCF4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -412,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -435,23 +435,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,9 +463,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E583A69-5FF9-47DF-8AE6-E5CBE997AEB0}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,13 +1100,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EAC1F0-B8F3-41F3-8E4C-CA58DF037879}">
-  <dimension ref="A1:CX110"/>
+  <dimension ref="A1:CX25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,16 +1324,16 @@
       <c r="CX1" s="12"/>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="13">
         <v>0.115</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>0.115</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0.115</v>
       </c>
       <c r="E2" t="s">
@@ -1355,13 +1341,13 @@
       </c>
     </row>
     <row r="3" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="13">
         <v>1.1896859756255944E-2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>1.4989104034554055E-2</v>
       </c>
       <c r="D3" s="13">
@@ -1372,13 +1358,13 @@
       </c>
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="13">
         <v>8.6313065308155495E-2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>0.10590494894554918</v>
       </c>
       <c r="D4" s="13">
@@ -1389,16 +1375,16 @@
       </c>
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>6.2308770259869993E-2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>6.752443570376325E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>7.9302071239834529E-2</v>
       </c>
       <c r="E5" t="s">
@@ -1406,16 +1392,16 @@
       </c>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>1.8126187711962186E-2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>2.0307695912343372E-2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>2.2657734639952725E-2</v>
       </c>
       <c r="E6" t="s">
@@ -1423,13 +1409,13 @@
       </c>
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="13">
         <v>5.0790650451125021E-3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>7.182882670973216E-3</v>
       </c>
       <c r="D7" s="13">
@@ -1440,16 +1426,16 @@
       </c>
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>1.747882386510639E-2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>2.7745903390636758E-2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>3.4957647730212781E-2</v>
       </c>
       <c r="E8" t="s">
@@ -1457,16 +1443,16 @@
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0.36122902654553207</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>0.41652482447233097</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>0.46610196973617052</v>
       </c>
       <c r="E9" t="s">
@@ -1474,13 +1460,13 @@
       </c>
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="13">
         <v>8.1274200462896058</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>9.5411073204994086</v>
       </c>
       <c r="D10" s="13">
@@ -1491,16 +1477,16 @@
       </c>
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0.22078514355923864</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.20851930225039206</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>0.30664603272116475</v>
       </c>
       <c r="E11" t="s">
@@ -1508,16 +1494,16 @@
       </c>
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.20391961175957457</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.17478823865106391</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.19110180759182988</v>
       </c>
       <c r="E12" t="s">
@@ -1525,13 +1511,13 @@
       </c>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="13">
         <v>3.8840879388669967</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>4.263083816938753</v>
       </c>
       <c r="D13" s="13">
@@ -1542,13 +1528,13 @@
       </c>
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="13">
         <v>0.69481609817139023</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>0.72795156742965128</v>
       </c>
       <c r="D14" s="13">
@@ -1559,7 +1545,7 @@
       </c>
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="13">
@@ -1576,16 +1562,16 @@
       </c>
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" t="s">
         <v>80</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>3.6579682584894653</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>3.8276003855677092</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="13">
         <v>3.9851718412442567</v>
       </c>
       <c r="E16" t="s">
@@ -1593,13 +1579,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="13">
         <v>0.65</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>0.65</v>
       </c>
       <c r="D17" s="13">
@@ -1610,13 +1596,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="13">
         <v>0.76</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>0.76</v>
       </c>
       <c r="D18" s="13">
@@ -1627,13 +1613,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="13">
         <v>0.5</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>0.5</v>
       </c>
       <c r="D19" s="13">
@@ -1644,13 +1630,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="13">
         <v>0.5</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0.5</v>
       </c>
       <c r="D20" s="13">
@@ -1661,279 +1647,15 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-    </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-    </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
       <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
